--- a/MavenBook/src/test/resources/RetainerInvoiceData.xlsx
+++ b/MavenBook/src/test/resources/RetainerInvoiceData.xlsx
@@ -37,19 +37,19 @@
     <t>Terms And Conditions</t>
   </si>
   <si>
-    <t>Test customer note</t>
-  </si>
-  <si>
-    <t>Terms 1:</t>
-  </si>
-  <si>
-    <t>7112025-03</t>
-  </si>
-  <si>
-    <t>Test Auto 3</t>
-  </si>
-  <si>
     <t>Rency</t>
+  </si>
+  <si>
+    <t>05122025</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Terms 1: Test 100</t>
+  </si>
+  <si>
+    <t>Test description</t>
   </si>
 </sst>
 </file>
@@ -133,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -141,6 +141,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,39 +490,42 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1001</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6">
-        <v>27112025</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2">
+        <v>75</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="2">
-        <v>450</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+    </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -529,7 +534,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -538,7 +543,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -547,7 +552,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -556,7 +561,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -565,7 +570,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -574,7 +579,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>

--- a/MavenBook/src/test/resources/RetainerInvoiceData.xlsx
+++ b/MavenBook/src/test/resources/RetainerInvoiceData.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Retainer" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Customer Name</t>
   </si>
@@ -40,9 +41,6 @@
     <t>Rency</t>
   </si>
   <si>
-    <t>05122025</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -50,13 +48,37 @@
   </si>
   <si>
     <t>Test description</t>
+  </si>
+  <si>
+    <t>Save As</t>
+  </si>
+  <si>
+    <t>SAVE AND APPROVE</t>
+  </si>
+  <si>
+    <t>27-12-2025</t>
+  </si>
+  <si>
+    <t>subinm</t>
+  </si>
+  <si>
+    <t>27-12-2026</t>
+  </si>
+  <si>
+    <t>Terms 1: Test 101</t>
+  </si>
+  <si>
+    <t>Notes 102</t>
+  </si>
+  <si>
+    <t>SAVE AND SUBMIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,8 +113,13 @@
       <name val="Lucida Bright"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +129,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,16 +166,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,175 +484,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="6" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6">
-        <v>1001</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2">
-        <v>75</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1002</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="2">
+        <v>101</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="7"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="7"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="7"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="7"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="7"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -626,4 +689,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>